--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>https://www.tme.eu/pl/details/px10110/przelaczniki-nozne/pizzato-elettrica/px-10110/?brutto=1&amp;currency=PLN&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Automatyka%20-%20Ur.%20PL%20[PLA]%20CSS%20Segment_A&amp;gad_source=1&amp;gbraid=0AAAAADyylhLNOSuSIAxlyhYzUWBRXmXRQ&amp;gclid=CjwKCAiAtYy9BhBcEiwANWQQLzVw9infioBY9cTyBJSEtpskjo9k5hZTaWwqOgL9GcETs4IN3ZlPgBoCOtcQAvD_BwE</t>
+  </si>
+  <si>
+    <t>KB304-PNW</t>
+  </si>
+  <si>
+    <t>Klawiatura</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/kb304-pnw/klawiatury-plastikowe/accord/ak-304-n-wwb/</t>
   </si>
 </sst>
 </file>
@@ -727,16 +736,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="10" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -784,7 +794,7 @@
       </c>
       <c r="Q1">
         <f>SUM(O:O)</f>
-        <v>471.86153365853659</v>
+        <v>492.07153365853657</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -873,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O27" si="0">L3*M3</f>
+        <f t="shared" ref="O3:O28" si="0">L3*M3</f>
         <v>7.31</v>
       </c>
     </row>
@@ -1590,6 +1600,30 @@
       <c r="O27">
         <f t="shared" si="0"/>
         <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>20.21</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>20.21</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -122,9 +122,6 @@
     <t>449140201(ppcp)</t>
   </si>
   <si>
-    <t>OUT,RELAY,SWITCH</t>
-  </si>
-  <si>
     <t>449140201 (PPCP)</t>
   </si>
   <si>
@@ -266,24 +263,6 @@
     <t>https://www.tme.eu/pl/details/el817/transoptory-wyjscie-analogowe/everlight/</t>
   </si>
   <si>
-    <t>2P terminal block</t>
-  </si>
-  <si>
-    <t>ZAS_5VDC</t>
-  </si>
-  <si>
-    <t>2P TERMINAL BLOCK</t>
-  </si>
-  <si>
-    <t>Wurth Elektronik</t>
-  </si>
-  <si>
-    <t>710-691214110002</t>
-  </si>
-  <si>
-    <t>https://www.mouser.pl/ProductDetail/Wurth-Elektronik/691214110002?qs=7gQLVZk5cPmb9EqUyfv%252B2g%3D%3D</t>
-  </si>
-  <si>
     <t>ESP32DEVKITV1</t>
   </si>
   <si>
@@ -405,6 +384,18 @@
   </si>
   <si>
     <t>https://www.tme.eu/pl/details/kb304-pnw/klawiatury-plastikowe/accord/ak-304-n-wwb/</t>
+  </si>
+  <si>
+    <t>OUT,RELAY,SWITCH,ZAS</t>
+  </si>
+  <si>
+    <t>MX-43045-0412</t>
+  </si>
+  <si>
+    <t>Przycisk w pcb</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/mx-43045-0412/zlacza-sygnalowe-raster-3-00mm/molex/43045-0412/</t>
   </si>
 </sst>
 </file>
@@ -739,13 +730,13 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -794,7 +785,7 @@
       </c>
       <c r="Q1">
         <f>SUM(O:O)</f>
-        <v>492.07153365853657</v>
+        <v>497.7715336585365</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -914,28 +905,28 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
       </c>
       <c r="F5">
         <v>449140201</v>
       </c>
       <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="L5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5">
         <v>4.5199999999999996</v>
@@ -945,15 +936,15 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>13.559999999999999</v>
+        <v>18.079999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -974,31 +965,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1016,7 +1007,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1037,31 +1028,31 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
         <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>53</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1082,13 +1073,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1103,13 +1094,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1124,28 +1115,28 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>62</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>63</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>64</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1166,31 +1157,31 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
       </c>
       <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
         <v>70</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1211,31 +1202,31 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
       </c>
       <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
         <v>77</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1253,219 +1244,201 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" t="s">
+      <c r="K15" t="s">
         <v>81</v>
       </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15">
-        <v>691214110002</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.96</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
         <f>25.49/1.23</f>
         <v>20.723577235772357</v>
       </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>20.723577235772357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>4.9039999999999999</v>
+      </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>20.723577235772357</v>
+        <v>9.8079999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
         <v>89</v>
       </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>4.9039999999999999</v>
+        <v>5.0259999999999999E-2</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>9.8079999999999998</v>
+        <v>0.65337999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>14</v>
-      </c>
       <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" t="s">
-        <v>98</v>
-      </c>
       <c r="L18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>5.0259999999999999E-2</v>
+        <f>(26.46*4.1)/15</f>
+        <v>7.2323999999999993</v>
       </c>
       <c r="N18">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>0.65337999999999996</v>
+        <v>7.2323999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <f>(26.46*4.1)/15</f>
-        <v>7.2323999999999993</v>
+        <v>32.04</v>
       </c>
       <c r="N19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>7.2323999999999993</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.04</v>
+        <v>26.9</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>32.04</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>26.9</v>
+        <v>5.14</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>26.9</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1483,13 +1456,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -1507,13 +1480,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -1531,13 +1504,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -1555,13 +1528,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1580,13 +1553,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1604,13 +1577,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L28">
         <v>1</v>
